--- a/statistics/HistoricalDistanceData/historical_distance/Q19613356-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q19613356-en.xlsx
@@ -31,16 +31,22 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Tunisia attack: Australian man Javier Camelo among at least 20 tourists killed in attack on Bardo Museum in Tunis</t>
+  </si>
+  <si>
+    <t>Prince Harry talks mental health at Tunisia attacks memorial</t>
+  </si>
+  <si>
     <t>Turmoil in Libya Strengthening Extremism in Tunisia</t>
   </si>
   <si>
     <t>UPDATE 1: 8 dead, hostages taken in Tunisia parliament, museum attack</t>
   </si>
   <si>
-    <t>Prince Harry talks mental health at Tunisia attacks memorial</t>
-  </si>
-  <si>
-    <t>Tunisia attack: Australian man Javier Camelo among at least 20 tourists killed in attack on Bardo Museum in Tunis</t>
+    <t>2015-03-19T01:36:39UTC</t>
+  </si>
+  <si>
+    <t>2019-03-04T16:57:10UTC</t>
   </si>
   <si>
     <t>2015-10-20T23:09:08UTC</t>
@@ -49,28 +55,22 @@
     <t>2017-10-12T00:00:00UTC</t>
   </si>
   <si>
-    <t>2019-03-04T16:57:10UTC</t>
-  </si>
-  <si>
-    <t>2015-03-19T01:36:39UTC</t>
+    <t>day_1</t>
   </si>
   <si>
     <t>day_31_beyond</t>
   </si>
   <si>
-    <t>day_1</t>
+    <t>http://www.abc.net.au/news/2015-03-19/tunisia-museum-attack-australian-among-22-killed-reports/6330786</t>
+  </si>
+  <si>
+    <t>https://www.bbc.co.uk/news/uk-england-birmingham-47417353</t>
   </si>
   <si>
     <t>http://therealnews.com/t2/index.php?option=com_content&amp;task=view&amp;id=31&amp;Itemid=74&amp;jumival=13465</t>
   </si>
   <si>
     <t>http://english.ahram.org.eg/NewsContent/2/8/125536/World/Region/BREAKING-Militants-attack-Tunisian-Parliament-Medi.aspx</t>
-  </si>
-  <si>
-    <t>https://www.bbc.co.uk/news/uk-england-birmingham-47417353</t>
-  </si>
-  <si>
-    <t>http://www.abc.net.au/news/2015-03-19/tunisia-museum-attack-australian-among-22-killed-reports/6330786</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -489,10 +489,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>939</v>
+        <v>1447</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -506,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1447</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>939</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
